--- a/Code/Results/Cases/Case_4_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_174/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.37879704320416</v>
+        <v>13.0594409910526</v>
       </c>
       <c r="C2">
-        <v>13.9623514008417</v>
+        <v>8.146183392977051</v>
       </c>
       <c r="D2">
-        <v>7.241766021271157</v>
+        <v>5.974586842889962</v>
       </c>
       <c r="E2">
-        <v>11.61117677594052</v>
+        <v>11.16093018045487</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.05394288035688</v>
+        <v>3.618073060271496</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.89909414454267</v>
+        <v>14.88817371009976</v>
       </c>
       <c r="N2">
-        <v>11.04725170890662</v>
+        <v>17.06051441188715</v>
       </c>
       <c r="O2">
-        <v>17.88907382885124</v>
+        <v>21.88661657444765</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.00129390341101</v>
+        <v>12.51247904771413</v>
       </c>
       <c r="C3">
-        <v>13.1016059131578</v>
+        <v>7.687364648947827</v>
       </c>
       <c r="D3">
-        <v>6.734526853264901</v>
+        <v>5.854270157744292</v>
       </c>
       <c r="E3">
-        <v>10.97095825864829</v>
+        <v>11.0445146453906</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.061067878719494</v>
+        <v>3.620712390535023</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.70370304763443</v>
+        <v>14.62109935982</v>
       </c>
       <c r="N3">
-        <v>11.29165335475928</v>
+        <v>17.12923465148288</v>
       </c>
       <c r="O3">
-        <v>17.28561853472784</v>
+        <v>21.8559206580594</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.10774442477383</v>
+        <v>12.1665497709628</v>
       </c>
       <c r="C4">
-        <v>12.54531510303964</v>
+        <v>7.389757060844937</v>
       </c>
       <c r="D4">
-        <v>6.406306785979428</v>
+        <v>5.780982521354287</v>
       </c>
       <c r="E4">
-        <v>10.57291309185684</v>
+        <v>10.97656079946481</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.065562556362309</v>
+        <v>3.622418115142265</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.93115713976926</v>
+        <v>14.45850344182482</v>
       </c>
       <c r="N4">
-        <v>11.44429966786694</v>
+        <v>17.17332591930335</v>
       </c>
       <c r="O4">
-        <v>16.92609414732033</v>
+        <v>21.84395831400555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.73151246005686</v>
+        <v>12.02326189337851</v>
       </c>
       <c r="C5">
-        <v>12.31164062418655</v>
+        <v>7.264526866488651</v>
       </c>
       <c r="D5">
-        <v>6.26829196477675</v>
+        <v>5.751310998567079</v>
       </c>
       <c r="E5">
-        <v>10.40962965021688</v>
+        <v>10.94978513446981</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.067425501196124</v>
+        <v>3.62313470106179</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.60655946489724</v>
+        <v>14.39268571730198</v>
       </c>
       <c r="N5">
-        <v>11.50719420277915</v>
+        <v>17.19177207230505</v>
       </c>
       <c r="O5">
-        <v>16.78247190957381</v>
+        <v>21.84081509449519</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.66830576020639</v>
+        <v>11.99933591816104</v>
       </c>
       <c r="C6">
-        <v>12.27241801846453</v>
+        <v>7.243495234920383</v>
       </c>
       <c r="D6">
-        <v>6.245115985965267</v>
+        <v>5.746397123751406</v>
       </c>
       <c r="E6">
-        <v>10.38245717948698</v>
+        <v>10.94539520101144</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.067736766977323</v>
+        <v>3.623254989678489</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.55206753026984</v>
+        <v>14.38178609440527</v>
       </c>
       <c r="N6">
-        <v>11.5176806015588</v>
+        <v>17.19486399684921</v>
       </c>
       <c r="O6">
-        <v>16.7588014419386</v>
+        <v>21.84039771704964</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.10271955613283</v>
+        <v>12.16462642074138</v>
       </c>
       <c r="C7">
-        <v>12.54219193409361</v>
+        <v>7.388084101855716</v>
       </c>
       <c r="D7">
-        <v>6.404462786650665</v>
+        <v>5.780581514969801</v>
       </c>
       <c r="E7">
-        <v>10.57071510420218</v>
+        <v>10.97619594706788</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.065587552337257</v>
+        <v>3.622427692163793</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.92681919423153</v>
+        <v>14.45761389165195</v>
       </c>
       <c r="N7">
-        <v>11.44514504023327</v>
+        <v>17.17357275056983</v>
       </c>
       <c r="O7">
-        <v>16.92414535852529</v>
+        <v>21.8439089136482</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.91368735337348</v>
+        <v>12.87306641465725</v>
       </c>
       <c r="C8">
-        <v>13.67133274166396</v>
+        <v>7.99130359534475</v>
       </c>
       <c r="D8">
-        <v>7.070323783136461</v>
+        <v>5.933007260760262</v>
       </c>
       <c r="E8">
-        <v>11.39154479727753</v>
+        <v>11.12007672197195</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.056375426229692</v>
+        <v>3.618965469832824</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.4948769438375</v>
+        <v>14.79585340832007</v>
       </c>
       <c r="N8">
-        <v>11.13101049917004</v>
+        <v>17.08381647280099</v>
       </c>
       <c r="O8">
-        <v>17.67879115672575</v>
+        <v>21.87460429401055</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.09060744669576</v>
+        <v>14.1739214388166</v>
       </c>
       <c r="C9">
-        <v>15.66565004729979</v>
+        <v>9.046724136511267</v>
       </c>
       <c r="D9">
-        <v>8.245094105039358</v>
+        <v>6.234581577821479</v>
       </c>
       <c r="E9">
-        <v>12.95662085789675</v>
+        <v>11.42879913342261</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.039204602985387</v>
+        <v>3.612848441642258</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.26799842721556</v>
+        <v>15.46614604779867</v>
       </c>
       <c r="N9">
-        <v>10.53351913954774</v>
+        <v>16.92277838913891</v>
       </c>
       <c r="O9">
-        <v>19.24095910208587</v>
+        <v>21.98933812791935</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.20319967107578</v>
+        <v>15.0663111178099</v>
       </c>
       <c r="C10">
-        <v>16.99865552964127</v>
+        <v>9.743100706468852</v>
       </c>
       <c r="D10">
-        <v>9.03142342366233</v>
+        <v>6.455186457539515</v>
       </c>
       <c r="E10">
-        <v>14.24349519304052</v>
+        <v>11.66981086518437</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.027047884541369</v>
+        <v>3.608759447643167</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.12806681711399</v>
+        <v>15.95761914476567</v>
       </c>
       <c r="N10">
-        <v>10.10287052659505</v>
+        <v>16.81348375009383</v>
       </c>
       <c r="O10">
-        <v>20.43326279775074</v>
+        <v>22.1066457231871</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.11777570522304</v>
+        <v>15.45695590965336</v>
       </c>
       <c r="C11">
-        <v>17.57702091163092</v>
+        <v>10.04258245992036</v>
       </c>
       <c r="D11">
-        <v>9.373194696587557</v>
+        <v>6.554820155454527</v>
       </c>
       <c r="E11">
-        <v>14.82838797453893</v>
+        <v>11.78208069487498</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.021595933854609</v>
+        <v>3.606986236311045</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.93743333103517</v>
+        <v>16.17992311966194</v>
       </c>
       <c r="N11">
-        <v>9.9080441560497</v>
+        <v>16.76569825909196</v>
       </c>
       <c r="O11">
-        <v>20.98458002711726</v>
+        <v>22.16709155291569</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.45756297669524</v>
+        <v>15.60257539153104</v>
       </c>
       <c r="C12">
-        <v>17.79207075977521</v>
+        <v>10.15349261315081</v>
       </c>
       <c r="D12">
-        <v>9.500386773041305</v>
+        <v>6.592404929670385</v>
       </c>
       <c r="E12">
-        <v>15.0471934824319</v>
+        <v>11.82493361712786</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.019540733025835</v>
+        <v>3.606327185753051</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.23878378915699</v>
+        <v>16.26383707789748</v>
       </c>
       <c r="N12">
-        <v>9.834358010351938</v>
+        <v>16.74787940320751</v>
       </c>
       <c r="O12">
-        <v>21.19460345505338</v>
+        <v>22.1909887508513</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.38467241184958</v>
+        <v>15.57131788345504</v>
       </c>
       <c r="C13">
-        <v>17.74593108906174</v>
+        <v>10.12971728915953</v>
       </c>
       <c r="D13">
-        <v>9.473091797323557</v>
+        <v>6.584317420003985</v>
       </c>
       <c r="E13">
-        <v>15.00018638387116</v>
+        <v>11.81569004327101</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.019982974533672</v>
+        <v>3.606468572522036</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.1741085736058</v>
+        <v>16.24577792623698</v>
       </c>
       <c r="N13">
-        <v>9.850224712090251</v>
+        <v>16.75170474048561</v>
       </c>
       <c r="O13">
-        <v>21.14931567655969</v>
+        <v>22.18579743459864</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.14586051573436</v>
+        <v>15.46898295383703</v>
       </c>
       <c r="C14">
-        <v>17.59479223262924</v>
+        <v>10.05175718838708</v>
       </c>
       <c r="D14">
-        <v>9.38370317275136</v>
+        <v>6.557915395501037</v>
       </c>
       <c r="E14">
-        <v>14.84644201577883</v>
+        <v>11.78559967004864</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.021426675764505</v>
+        <v>3.606931767180717</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.96232769134254</v>
+        <v>16.18683261079794</v>
       </c>
       <c r="N14">
-        <v>9.90198053208392</v>
+        <v>16.76422675882617</v>
       </c>
       <c r="O14">
-        <v>21.00183377464318</v>
+        <v>22.16903746217456</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.99873350266289</v>
+        <v>15.40599619584235</v>
       </c>
       <c r="C15">
-        <v>17.50170115109614</v>
+        <v>10.00367897953998</v>
       </c>
       <c r="D15">
-        <v>9.32866165449532</v>
+        <v>6.541723425324288</v>
       </c>
       <c r="E15">
-        <v>14.75192491184849</v>
+        <v>11.76721137965514</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.022312140274852</v>
+        <v>3.607217103488241</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.83194126100322</v>
+        <v>16.15068957717142</v>
       </c>
       <c r="N15">
-        <v>9.933692219272777</v>
+        <v>16.77193281666193</v>
       </c>
       <c r="O15">
-        <v>20.91165939773282</v>
+        <v>22.15890237566994</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.1425067169179</v>
+        <v>15.04046392646053</v>
       </c>
       <c r="C16">
-        <v>16.96029938496056</v>
+        <v>9.723179837000652</v>
       </c>
       <c r="D16">
-        <v>9.008772437477843</v>
+        <v>6.448657128291329</v>
       </c>
       <c r="E16">
-        <v>14.20488719182993</v>
+        <v>11.6625233489235</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.027405596700918</v>
+        <v>3.608877073769808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.07444511716125</v>
+        <v>15.94305813909418</v>
       </c>
       <c r="N16">
-        <v>10.11561918242224</v>
+        <v>16.81664541499264</v>
       </c>
       <c r="O16">
-        <v>20.39740914865127</v>
+        <v>22.10283707964756</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.60543607746738</v>
+        <v>14.81221894765593</v>
       </c>
       <c r="C17">
-        <v>16.62103193411332</v>
+        <v>9.546663359008512</v>
       </c>
       <c r="D17">
-        <v>8.80849248170896</v>
+        <v>6.391349725390548</v>
       </c>
       <c r="E17">
-        <v>13.86435317004727</v>
+        <v>11.59894670639804</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.030548992713451</v>
+        <v>3.609917617839351</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.60042634095041</v>
+        <v>15.81529596424625</v>
       </c>
       <c r="N17">
-        <v>10.22745733277992</v>
+        <v>16.84456919812397</v>
       </c>
       <c r="O17">
-        <v>20.08418806381668</v>
+        <v>22.07024966117145</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.29214613260274</v>
+        <v>14.67950298029996</v>
       </c>
       <c r="C18">
-        <v>16.42325175131514</v>
+        <v>9.44350733576159</v>
       </c>
       <c r="D18">
-        <v>8.69179302411176</v>
+        <v>6.358322497918083</v>
       </c>
       <c r="E18">
-        <v>13.66662206287984</v>
+        <v>11.56262929348476</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.032364476163932</v>
+        <v>3.61052429409665</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.32431073111661</v>
+        <v>15.74169589575995</v>
       </c>
       <c r="N18">
-        <v>10.29188932245657</v>
+        <v>16.86081227032134</v>
       </c>
       <c r="O18">
-        <v>19.90487251301639</v>
+        <v>22.05217358945155</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.18531506338517</v>
+        <v>14.6343246468701</v>
       </c>
       <c r="C19">
-        <v>16.3558311146104</v>
+        <v>9.408301128731674</v>
       </c>
       <c r="D19">
-        <v>8.652020507700902</v>
+        <v>6.347130070008205</v>
       </c>
       <c r="E19">
-        <v>13.59934906116369</v>
+        <v>11.55037701615912</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.032980508584512</v>
+        <v>3.610731111771417</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.23022195379733</v>
+        <v>15.71675914629916</v>
       </c>
       <c r="N19">
-        <v>10.31372490870934</v>
+        <v>16.86634320933523</v>
       </c>
       <c r="O19">
-        <v>19.8443052799097</v>
+        <v>22.04616825708336</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.66306063163827</v>
+        <v>14.83666541714035</v>
       </c>
       <c r="C20">
-        <v>16.65742058562387</v>
+        <v>9.565622450001891</v>
       </c>
       <c r="D20">
-        <v>8.829967819322615</v>
+        <v>6.39745728009203</v>
       </c>
       <c r="E20">
-        <v>13.90079556764833</v>
+        <v>11.60568894149804</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.030213611421995</v>
+        <v>3.609806003754273</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.65124479718552</v>
+        <v>15.82890896068013</v>
       </c>
       <c r="N20">
-        <v>10.21554148706014</v>
+        <v>16.84157783317536</v>
       </c>
       <c r="O20">
-        <v>20.11744428600544</v>
+        <v>22.07364965116896</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.21618178674543</v>
+        <v>15.49910465599224</v>
       </c>
       <c r="C21">
-        <v>17.63929239768974</v>
+        <v>10.0747237828991</v>
       </c>
       <c r="D21">
-        <v>9.410018764898103</v>
+        <v>6.565674540830085</v>
       </c>
       <c r="E21">
-        <v>14.89167190213723</v>
+        <v>11.79442906646991</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.021002388518287</v>
+        <v>3.606795378988607</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.02467106569634</v>
+        <v>16.20415420377979</v>
       </c>
       <c r="N21">
-        <v>9.886776684280395</v>
+        <v>16.76054124715147</v>
       </c>
       <c r="O21">
-        <v>21.04511892381788</v>
+        <v>22.17393301855409</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.19317071223807</v>
+        <v>15.91854792643017</v>
       </c>
       <c r="C22">
-        <v>18.25793232131592</v>
+        <v>10.39289428515854</v>
       </c>
       <c r="D22">
-        <v>9.776153645421713</v>
+        <v>6.674755638245683</v>
       </c>
       <c r="E22">
-        <v>15.52372691387627</v>
+        <v>11.91973765797483</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.015035707890085</v>
+        <v>3.604900158735111</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.89241110187945</v>
+        <v>16.44780150984831</v>
       </c>
       <c r="N22">
-        <v>9.672402363995539</v>
+        <v>16.70918995106003</v>
       </c>
       <c r="O22">
-        <v>21.65871077688275</v>
+        <v>22.24534127816229</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.67516837528712</v>
+        <v>15.69594993645874</v>
       </c>
       <c r="C23">
-        <v>17.92983887839569</v>
+        <v>10.22441466623438</v>
       </c>
       <c r="D23">
-        <v>9.58190492868893</v>
+        <v>6.616628425713471</v>
       </c>
       <c r="E23">
-        <v>15.18775352181962</v>
+        <v>11.85269234199165</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.018216033102396</v>
+        <v>3.605905071787226</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.43196148897369</v>
+        <v>16.31793557985463</v>
       </c>
       <c r="N23">
-        <v>9.786795805468326</v>
+        <v>16.73645021451721</v>
       </c>
       <c r="O23">
-        <v>21.33055960013054</v>
+        <v>22.20669648576349</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.63702266246791</v>
+        <v>14.82561781615506</v>
       </c>
       <c r="C24">
-        <v>16.64097778694069</v>
+        <v>9.55705625959463</v>
       </c>
       <c r="D24">
-        <v>8.820263669923497</v>
+        <v>6.394696302069404</v>
       </c>
       <c r="E24">
-        <v>13.88432605590707</v>
+        <v>11.60264004622379</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.030365211299156</v>
+        <v>3.609856438143725</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.62828098478113</v>
+        <v>15.82275497910282</v>
       </c>
       <c r="N24">
-        <v>10.22092821638997</v>
+        <v>16.84292963938369</v>
       </c>
       <c r="O24">
-        <v>20.10240677960133</v>
+        <v>22.07211046246465</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.27057568204415</v>
+        <v>13.83253207760569</v>
       </c>
       <c r="C25">
-        <v>15.1495361334481</v>
+        <v>8.775015528783504</v>
       </c>
       <c r="D25">
-        <v>7.94100231371281</v>
+        <v>6.152985064068721</v>
       </c>
       <c r="E25">
-        <v>12.53857931033347</v>
+        <v>11.34263795966547</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.0437625427114</v>
+        <v>3.61443176590233</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.54946501992789</v>
+        <v>15.28461622542435</v>
       </c>
       <c r="N25">
-        <v>10.69346543762594</v>
+        <v>16.96475166286984</v>
       </c>
       <c r="O25">
-        <v>18.81017985234923</v>
+        <v>21.95247776050605</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_174/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_174/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.0594409910526</v>
+        <v>20.37879704320411</v>
       </c>
       <c r="C2">
-        <v>8.146183392977051</v>
+        <v>13.96235140084162</v>
       </c>
       <c r="D2">
-        <v>5.974586842889962</v>
+        <v>7.241766021271161</v>
       </c>
       <c r="E2">
-        <v>11.16093018045487</v>
+        <v>11.61117677594051</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.618073060271496</v>
+        <v>2.053942880356613</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.88817371009976</v>
+        <v>17.89909414454264</v>
       </c>
       <c r="N2">
-        <v>17.06051441188715</v>
+        <v>11.04725170890659</v>
       </c>
       <c r="O2">
-        <v>21.88661657444765</v>
+        <v>17.88907382885124</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.51247904771413</v>
+        <v>19.00129390341107</v>
       </c>
       <c r="C3">
-        <v>7.687364648947827</v>
+        <v>13.10160591315783</v>
       </c>
       <c r="D3">
-        <v>5.854270157744292</v>
+        <v>6.734526853264895</v>
       </c>
       <c r="E3">
-        <v>11.0445146453906</v>
+        <v>10.97095825864827</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.620712390535023</v>
+        <v>2.06106787871936</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.62109935982</v>
+        <v>16.70370304763448</v>
       </c>
       <c r="N3">
-        <v>17.12923465148288</v>
+        <v>11.29165335475915</v>
       </c>
       <c r="O3">
-        <v>21.8559206580594</v>
+        <v>17.28561853472772</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.1665497709628</v>
+        <v>18.10774442477386</v>
       </c>
       <c r="C4">
-        <v>7.389757060844937</v>
+        <v>12.5453151030397</v>
       </c>
       <c r="D4">
-        <v>5.780982521354287</v>
+        <v>6.406306785979406</v>
       </c>
       <c r="E4">
-        <v>10.97656079946481</v>
+        <v>10.57291309185687</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.622418115142265</v>
+        <v>2.065562556362309</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.45850344182482</v>
+        <v>15.93115713976928</v>
       </c>
       <c r="N4">
-        <v>17.17332591930335</v>
+        <v>11.44429966786694</v>
       </c>
       <c r="O4">
-        <v>21.84395831400555</v>
+        <v>16.92609414732027</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.02326189337851</v>
+        <v>17.73151246005678</v>
       </c>
       <c r="C5">
-        <v>7.264526866488651</v>
+        <v>12.31164062418669</v>
       </c>
       <c r="D5">
-        <v>5.751310998567079</v>
+        <v>6.26829196477673</v>
       </c>
       <c r="E5">
-        <v>10.94978513446981</v>
+        <v>10.40962965021687</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.62313470106179</v>
+        <v>2.06742550119626</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.39268571730198</v>
+        <v>15.60655946489721</v>
       </c>
       <c r="N5">
-        <v>17.19177207230505</v>
+        <v>11.50719420277922</v>
       </c>
       <c r="O5">
-        <v>21.84081509449519</v>
+        <v>16.78247190957388</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.99933591816104</v>
+        <v>17.66830576020635</v>
       </c>
       <c r="C6">
-        <v>7.243495234920383</v>
+        <v>12.2724180184643</v>
       </c>
       <c r="D6">
-        <v>5.746397123751406</v>
+        <v>6.245115985965193</v>
       </c>
       <c r="E6">
-        <v>10.94539520101144</v>
+        <v>10.38245717948696</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.623254989678489</v>
+        <v>2.067736766977192</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.38178609440527</v>
+        <v>15.55206753026983</v>
       </c>
       <c r="N6">
-        <v>17.19486399684921</v>
+        <v>11.51768060155881</v>
       </c>
       <c r="O6">
-        <v>21.84039771704964</v>
+        <v>16.75880144193863</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.16462642074138</v>
+        <v>18.10271955613272</v>
       </c>
       <c r="C7">
-        <v>7.388084101855716</v>
+        <v>12.54219193409362</v>
       </c>
       <c r="D7">
-        <v>5.780581514969801</v>
+        <v>6.404462786650549</v>
       </c>
       <c r="E7">
-        <v>10.97619594706788</v>
+        <v>10.57071510420215</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.622427692163793</v>
+        <v>2.06558755233739</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.45761389165195</v>
+        <v>15.92681919423149</v>
       </c>
       <c r="N7">
-        <v>17.17357275056983</v>
+        <v>11.44514504023327</v>
       </c>
       <c r="O7">
-        <v>21.8439089136482</v>
+        <v>16.92414535852534</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.87306641465725</v>
+        <v>19.91368735337337</v>
       </c>
       <c r="C8">
-        <v>7.99130359534475</v>
+        <v>13.67133274166396</v>
       </c>
       <c r="D8">
-        <v>5.933007260760262</v>
+        <v>7.070323783136456</v>
       </c>
       <c r="E8">
-        <v>11.12007672197195</v>
+        <v>11.39154479727748</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.618965469832824</v>
+        <v>2.056375426229691</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.79585340832007</v>
+        <v>17.49487694383749</v>
       </c>
       <c r="N8">
-        <v>17.08381647280099</v>
+        <v>11.13101049917007</v>
       </c>
       <c r="O8">
-        <v>21.87460429401055</v>
+        <v>17.67879115672582</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.1739214388166</v>
+        <v>23.09060744669573</v>
       </c>
       <c r="C9">
-        <v>9.046724136511267</v>
+        <v>15.66565004729973</v>
       </c>
       <c r="D9">
-        <v>6.234581577821479</v>
+        <v>8.245094105039348</v>
       </c>
       <c r="E9">
-        <v>11.42879913342261</v>
+        <v>12.95662085789676</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.612848441642258</v>
+        <v>2.039204602985656</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.46614604779867</v>
+        <v>20.26799842721556</v>
       </c>
       <c r="N9">
-        <v>16.92277838913891</v>
+        <v>10.53351913954774</v>
       </c>
       <c r="O9">
-        <v>21.98933812791935</v>
+        <v>19.24095910208587</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.0663111178099</v>
+        <v>25.20319967107584</v>
       </c>
       <c r="C10">
-        <v>9.743100706468852</v>
+        <v>16.99865552964136</v>
       </c>
       <c r="D10">
-        <v>6.455186457539515</v>
+        <v>9.031423423662376</v>
       </c>
       <c r="E10">
-        <v>11.66981086518437</v>
+        <v>14.24349519304054</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.608759447643167</v>
+        <v>2.027047884541369</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.95761914476567</v>
+        <v>22.12806681711401</v>
       </c>
       <c r="N10">
-        <v>16.81348375009383</v>
+        <v>10.10287052659495</v>
       </c>
       <c r="O10">
-        <v>22.1066457231871</v>
+        <v>20.43326279775071</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.45695590965336</v>
+        <v>26.11777570522304</v>
       </c>
       <c r="C11">
-        <v>10.04258245992036</v>
+        <v>17.5770209116309</v>
       </c>
       <c r="D11">
-        <v>6.554820155454527</v>
+        <v>9.373194696587515</v>
       </c>
       <c r="E11">
-        <v>11.78208069487498</v>
+        <v>14.82838797453894</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.606986236311045</v>
+        <v>2.021595933854611</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.17992311966194</v>
+        <v>22.93743333103519</v>
       </c>
       <c r="N11">
-        <v>16.76569825909196</v>
+        <v>9.908044156049666</v>
       </c>
       <c r="O11">
-        <v>22.16709155291569</v>
+        <v>20.98458002711724</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.60257539153104</v>
+        <v>26.45756297669516</v>
       </c>
       <c r="C12">
-        <v>10.15349261315081</v>
+        <v>17.79207075977508</v>
       </c>
       <c r="D12">
-        <v>6.592404929670385</v>
+        <v>9.500386773041248</v>
       </c>
       <c r="E12">
-        <v>11.82493361712786</v>
+        <v>15.04719348243187</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.606327185753051</v>
+        <v>2.019540733025966</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.26383707789748</v>
+        <v>23.23878378915692</v>
       </c>
       <c r="N12">
-        <v>16.74787940320751</v>
+        <v>9.834358010352037</v>
       </c>
       <c r="O12">
-        <v>22.1909887508513</v>
+        <v>21.19460345505342</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.57131788345504</v>
+        <v>26.38467241184961</v>
       </c>
       <c r="C13">
-        <v>10.12971728915953</v>
+        <v>17.74593108906155</v>
       </c>
       <c r="D13">
-        <v>6.584317420003985</v>
+        <v>9.473091797323598</v>
       </c>
       <c r="E13">
-        <v>11.81569004327101</v>
+        <v>15.00018638387121</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.606468572522036</v>
+        <v>2.019982974533541</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.24577792623698</v>
+        <v>23.1741085736058</v>
       </c>
       <c r="N13">
-        <v>16.75170474048561</v>
+        <v>9.850224712090219</v>
       </c>
       <c r="O13">
-        <v>22.18579743459864</v>
+        <v>21.14931567655967</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46898295383703</v>
+        <v>26.14586051573426</v>
       </c>
       <c r="C14">
-        <v>10.05175718838708</v>
+        <v>17.5947922326293</v>
       </c>
       <c r="D14">
-        <v>6.557915395501037</v>
+        <v>9.38370317275141</v>
       </c>
       <c r="E14">
-        <v>11.78559967004864</v>
+        <v>14.84644201577881</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.606931767180717</v>
+        <v>2.021426675764638</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.18683261079794</v>
+        <v>22.96232769134253</v>
       </c>
       <c r="N14">
-        <v>16.76422675882617</v>
+        <v>9.901980532083986</v>
       </c>
       <c r="O14">
-        <v>22.16903746217456</v>
+        <v>21.00183377464321</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.40599619584235</v>
+        <v>25.99873350266287</v>
       </c>
       <c r="C15">
-        <v>10.00367897953998</v>
+        <v>17.50170115109612</v>
       </c>
       <c r="D15">
-        <v>6.541723425324288</v>
+        <v>9.328661654495289</v>
       </c>
       <c r="E15">
-        <v>11.76721137965514</v>
+        <v>14.75192491184843</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.607217103488241</v>
+        <v>2.022312140274985</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.15068957717142</v>
+        <v>22.83194126100316</v>
       </c>
       <c r="N15">
-        <v>16.77193281666193</v>
+        <v>9.933692219272777</v>
       </c>
       <c r="O15">
-        <v>22.15890237566994</v>
+        <v>20.91165939773284</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.04046392646053</v>
+        <v>25.14250671691793</v>
       </c>
       <c r="C16">
-        <v>9.723179837000652</v>
+        <v>16.9602993849606</v>
       </c>
       <c r="D16">
-        <v>6.448657128291329</v>
+        <v>9.00877243747785</v>
       </c>
       <c r="E16">
-        <v>11.6625233489235</v>
+        <v>14.20488719182995</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.608877073769808</v>
+        <v>2.027405596701052</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.94305813909418</v>
+        <v>22.07444511716126</v>
       </c>
       <c r="N16">
-        <v>16.81664541499264</v>
+        <v>10.11561918242214</v>
       </c>
       <c r="O16">
-        <v>22.10283707964756</v>
+        <v>20.39740914865123</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.81221894765593</v>
+        <v>24.60543607746733</v>
       </c>
       <c r="C17">
-        <v>9.546663359008512</v>
+        <v>16.62103193411333</v>
       </c>
       <c r="D17">
-        <v>6.391349725390548</v>
+        <v>8.808492481708946</v>
       </c>
       <c r="E17">
-        <v>11.59894670639804</v>
+        <v>13.86435317004729</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.609917617839351</v>
+        <v>2.030548992713451</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.81529596424625</v>
+        <v>21.60042634095039</v>
       </c>
       <c r="N17">
-        <v>16.84456919812397</v>
+        <v>10.22745733277992</v>
       </c>
       <c r="O17">
-        <v>22.07024966117145</v>
+        <v>20.0841880638167</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.67950298029996</v>
+        <v>24.29214613260277</v>
       </c>
       <c r="C18">
-        <v>9.44350733576159</v>
+        <v>16.42325175131516</v>
       </c>
       <c r="D18">
-        <v>6.358322497918083</v>
+        <v>8.69179302411176</v>
       </c>
       <c r="E18">
-        <v>11.56262929348476</v>
+        <v>13.6666220628798</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.61052429409665</v>
+        <v>2.032364476163933</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.74169589575995</v>
+        <v>21.32431073111661</v>
       </c>
       <c r="N18">
-        <v>16.86081227032134</v>
+        <v>10.29188932245657</v>
       </c>
       <c r="O18">
-        <v>22.05217358945155</v>
+        <v>19.9048725130164</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.6343246468701</v>
+        <v>24.18531506338528</v>
       </c>
       <c r="C19">
-        <v>9.408301128731674</v>
+        <v>16.35583111461049</v>
       </c>
       <c r="D19">
-        <v>6.347130070008205</v>
+        <v>8.652020507700895</v>
       </c>
       <c r="E19">
-        <v>11.55037701615912</v>
+        <v>13.59934906116368</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.610731111771417</v>
+        <v>2.032980508584512</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.71675914629916</v>
+        <v>21.23022195379738</v>
       </c>
       <c r="N19">
-        <v>16.86634320933523</v>
+        <v>10.3137249087093</v>
       </c>
       <c r="O19">
-        <v>22.04616825708336</v>
+        <v>19.84430527990969</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.83666541714035</v>
+        <v>24.66306063163816</v>
       </c>
       <c r="C20">
-        <v>9.565622450001891</v>
+        <v>16.65742058562387</v>
       </c>
       <c r="D20">
-        <v>6.39745728009203</v>
+        <v>8.82996781932264</v>
       </c>
       <c r="E20">
-        <v>11.60568894149804</v>
+        <v>13.90079556764838</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.609806003754273</v>
+        <v>2.030213611422127</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.82890896068013</v>
+        <v>21.65124479718551</v>
       </c>
       <c r="N20">
-        <v>16.84157783317536</v>
+        <v>10.21554148706017</v>
       </c>
       <c r="O20">
-        <v>22.07364965116896</v>
+        <v>20.11744428600549</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.49910465599224</v>
+        <v>26.21618178674535</v>
       </c>
       <c r="C21">
-        <v>10.0747237828991</v>
+        <v>17.63929239768968</v>
       </c>
       <c r="D21">
-        <v>6.565674540830085</v>
+        <v>9.410018764898121</v>
       </c>
       <c r="E21">
-        <v>11.79442906646991</v>
+        <v>14.89167190213722</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.606795378988607</v>
+        <v>2.021002388518153</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.20415420377979</v>
+        <v>23.02467106569628</v>
       </c>
       <c r="N21">
-        <v>16.76054124715147</v>
+        <v>9.886776684280429</v>
       </c>
       <c r="O21">
-        <v>22.17393301855409</v>
+        <v>21.04511892381791</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.91854792643017</v>
+        <v>27.19317071223802</v>
       </c>
       <c r="C22">
-        <v>10.39289428515854</v>
+        <v>18.25793232131589</v>
       </c>
       <c r="D22">
-        <v>6.674755638245683</v>
+        <v>9.776153645421747</v>
       </c>
       <c r="E22">
-        <v>11.91973765797483</v>
+        <v>15.52372691387623</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.604900158735111</v>
+        <v>2.015035707889954</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.44780150984831</v>
+        <v>23.8924111018794</v>
       </c>
       <c r="N22">
-        <v>16.70918995106003</v>
+        <v>9.672402363995507</v>
       </c>
       <c r="O22">
-        <v>22.24534127816229</v>
+        <v>21.65871077688273</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.69594993645874</v>
+        <v>26.67516837528712</v>
       </c>
       <c r="C23">
-        <v>10.22441466623438</v>
+        <v>17.9298388783956</v>
       </c>
       <c r="D23">
-        <v>6.616628425713471</v>
+        <v>9.581904928688921</v>
       </c>
       <c r="E23">
-        <v>11.85269234199165</v>
+        <v>15.18775352181964</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.605905071787226</v>
+        <v>2.018216033102529</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.31793557985463</v>
+        <v>23.4319614889737</v>
       </c>
       <c r="N23">
-        <v>16.73645021451721</v>
+        <v>9.786795805468328</v>
       </c>
       <c r="O23">
-        <v>22.20669648576349</v>
+        <v>21.33055960013053</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.82561781615506</v>
+        <v>24.63702266246788</v>
       </c>
       <c r="C24">
-        <v>9.55705625959463</v>
+        <v>16.64097778694063</v>
       </c>
       <c r="D24">
-        <v>6.394696302069404</v>
+        <v>8.820263669923479</v>
       </c>
       <c r="E24">
-        <v>11.60264004622379</v>
+        <v>13.88432605590707</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.609856438143725</v>
+        <v>2.030365211299288</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.82275497910282</v>
+        <v>21.62828098478113</v>
       </c>
       <c r="N24">
-        <v>16.84292963938369</v>
+        <v>10.22092821639007</v>
       </c>
       <c r="O24">
-        <v>22.07211046246465</v>
+        <v>20.10240677960133</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.83253207760569</v>
+        <v>22.27057568204411</v>
       </c>
       <c r="C25">
-        <v>8.775015528783504</v>
+        <v>15.14953613344805</v>
       </c>
       <c r="D25">
-        <v>6.152985064068721</v>
+        <v>7.941002313712765</v>
       </c>
       <c r="E25">
-        <v>11.34263795966547</v>
+        <v>12.53857931033345</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.61443176590233</v>
+        <v>2.043762542711534</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.28461622542435</v>
+        <v>19.54946501992789</v>
       </c>
       <c r="N25">
-        <v>16.96475166286984</v>
+        <v>10.69346543762607</v>
       </c>
       <c r="O25">
-        <v>21.95247776050605</v>
+        <v>18.81017985234934</v>
       </c>
     </row>
   </sheetData>
